--- a/cincat/cincat.xlsx
+++ b/cincat/cincat.xlsx
@@ -1,41 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsal/Projects/sci7/cincat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsal/Code/sci7/cincat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B6A7E4-B9E3-9441-BC0A-8C959D4FA79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB0604-1AF9-7348-8C85-6074354135FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{3A959D1E-22BC-654A-8C36-29E9D72E3279}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="17460" activeTab="4" xr2:uid="{3A959D1E-22BC-654A-8C36-29E9D72E3279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1321" sheetId="2" r:id="rId2"/>
+    <sheet name="240222" sheetId="3" r:id="rId3"/>
+    <sheet name="240222(2)" sheetId="4" r:id="rId4"/>
+    <sheet name="250222" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'240222(2)'!$J$30:$J$32</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$E$23:$E$24</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$26:$E$30</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$E$26:$E$30</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$E$24</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$E$24</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'240222(2)'!$N$27</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$H$29</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
@@ -45,15 +64,25 @@
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -74,8 +103,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>F_H2_0</t>
   </si>
@@ -177,6 +228,87 @@
   </si>
   <si>
     <t>FOBJ</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>mm Hg L / (mol ˚K)</t>
+  </si>
+  <si>
+    <t>CA0</t>
+  </si>
+  <si>
+    <t>P (mm Hg)</t>
+  </si>
+  <si>
+    <t>t (min)</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>CA modelo</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>mmHg L / (mol ˚K)</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>dCb / dt</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>y_mod</t>
+  </si>
+  <si>
+    <t>C_A</t>
   </si>
 </sst>
 </file>
@@ -251,6 +383,2864 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1321'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1321'!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1321'!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.2204460492503131E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.22314355131420999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.40546510810816461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.80594267470528991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1819938976071611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5766480896111101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4EE-DB4E-BA46-7A32EA09BEBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483731311"/>
+        <c:axId val="484373551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483731311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484373551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="484373551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483731311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1321'!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7505030621172357E-2"/>
+                  <c:y val="3.8316564596092154E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1321'!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1321'!$F$15:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.3300403421689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27.285387097789652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-60.249452512094109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-97.827513501052863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-145.6516547029471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB07-0F4D-8F70-B065BA8CBC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483509279"/>
+        <c:axId val="478892079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483509279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478892079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478892079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483509279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'240222'!$F$8:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'240222'!$G$8:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16954183014755569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33486581057293913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.51673803013174424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5351002927882678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C9D-9344-B997-C33613938E64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531488143"/>
+        <c:axId val="541398895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531488143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541398895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541398895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531488143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -288,6 +3278,351 @@
         <a:xfrm>
           <a:off x="9296400" y="0"/>
           <a:ext cx="9613179" cy="3555994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E953F764-215D-174D-9F75-D69043AEB902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E466E80-7C60-F141-94A0-6AE11833F9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3544FF73-4BC3-4044-8239-28C33451856C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355601</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBAADFE-676B-1047-B6EC-DCA3115BD3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="21086" t="27868" r="29127" b="19521"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117601" y="762000"/>
+          <a:ext cx="5016500" cy="2872957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>695965</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEAA6C-F177-7E43-AC47-A2C662EB0207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="8236" t="51440" r="24771" b="20563"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="1816100"/>
+          <a:ext cx="4671065" cy="1061048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C4F637-8BCC-2345-93E3-15EF7D53CDBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="8236" t="51440" r="24771" b="20563"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071101" y="2806700"/>
+          <a:ext cx="4025900" cy="914497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154754F2-73D9-0E45-B387-5F61104B1CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16903700" y="4838700"/>
+          <a:ext cx="7556500" cy="4432300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233A3CAF-A461-7C4D-8B4A-6B61EDFD7DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6718300" cy="3822700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,7 +3933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F51CF2-ED1A-E94B-AD84-F5E0B203D746}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1039,12 +4374,1133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6208251D-3769-5A48-8A62-B74FC389AF3F}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <f>443.15</f>
+        <v>443.15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>62.363599999999998</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <f>C6 / (C2 * C1)</f>
+        <v>2.7138093375705241E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>7.5</v>
+      </c>
+      <c r="D6">
+        <f>(C6 / ($C$1 * $C$2) - 3 * $C$3) / -2</f>
+        <v>2.7138093375705236E-4</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6:E11">B6:B11</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>LN(D6 / $C$3)</f>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="0">$C$3 * EXP(-$N$7 * B6)</f>
+        <v>2.7138093375705241E-4</v>
+      </c>
+      <c r="H6">
+        <f>ABS((G6 - D6) / D6) * 100</f>
+        <v>1.997565115344676E-14</v>
+      </c>
+      <c r="I6">
+        <f>G6 - D6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>10.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D11" si="1">(C7 / ($C$1 * $C$2) - 3 * $C$3) / -2</f>
+        <v>2.1710474700564189E-4</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F11" si="2">LN(D7 / $C$3)</f>
+        <v>-0.22314355131420999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.2263273677068055E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H11" si="3">ABS((G7 - D7) / D7) * 100</f>
+        <v>2.546231642228904</v>
+      </c>
+      <c r="I7">
+        <f>G7 - D7</f>
+        <v>5.5279897650386623E-6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7">
+        <f>0.0792</f>
+        <v>7.9200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>12.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.8092062250470156E-4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-0.40546510810816461</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.8264118556823657E-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.95100439060798514</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="4">G8 - D8</f>
+        <v>1.7205630635350102E-6</v>
+      </c>
+      <c r="N8">
+        <f>INTERCEPT(F6:F11,_xlfn.ANCHORARRAY( E6))</f>
+        <v>-1.4573852408083288E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>15.8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.2121681707815004E-4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-0.80594267470528991</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.2291874084136597E-4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1.4040327111696742</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1.7019237632159346E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8.3223486352162698E-5</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-1.1819938976071611</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.2725135642431577E-5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.59881018156621624</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-4.9835070973112071E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>5.6085392976457462E-5</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-1.5766480896111101</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5.5674570209685007E-5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.73249512033356556</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-4.1082276677245524E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H6:H11)</f>
+        <v>6.2325740459063654</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>7.5</v>
+      </c>
+      <c r="D15">
+        <f>(C15 / ($C$1 * $C$2) - 3 * $C$3) / -2</f>
+        <v>2.7138093375705236E-4</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15:E20">B15:B20</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>-2 * (D15^(-0.5)- $C$3^(-0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>((6.8168 / 2 * B15 + $C$3^(-0.5)))^(-2)</f>
+        <v>2.7138093375705236E-4</v>
+      </c>
+      <c r="H15">
+        <f>ABS((G15 - D15) / D15) * 100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>10.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D20" si="5">(C16 / ($C$1 * $C$2) - 3 * $C$3) / -2</f>
+        <v>2.1710474700564189E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="6">-2 * (D16^(-0.5)- $C$3^(-0.5))</f>
+        <v>-14.3300403421689</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G20" si="7">((6.8168 / 2 * B16 + $C$3^(-0.5)))^(-2)</f>
+        <v>2.0868263160224261E-4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="8">ABS((G16 - D16) / D16) * 100</f>
+        <v>3.8792866206561616</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>12.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>1.8092062250470156E-4</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>-27.285387097789652</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>1.654454335765754E-4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>8.5535793067061849</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>15.8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>1.2121681707815004E-4</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>-60.249452512094109</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>1.1130180684404044E-4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>8.1795665594133364</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>8.3223486352162698E-5</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>-97.827513501052863</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>7.996333946600814E-5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>3.9173399590100666</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>5.6085392976457462E-5</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>-145.6516547029471</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>6.0212884748008599E-5</v>
+      </c>
+      <c r="H20">
+        <f>ABS((G20 - D20) / D20) * 100</f>
+        <v>7.3592990126389992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f>SUM(H15:H20)</f>
+        <v>31.889071458424748</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C88F2F-2891-294B-A185-B1627E946C3E}">
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>62.363599999999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <f>C8 / (D2 * (501 + 273.15))</f>
+        <v>6.4417533737337988E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>311</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="0">(C8 / $C$8 - 1) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>$D$3* (1 - 2 * D8)</f>
+        <v>6.4417533737337988E-3</v>
+      </c>
+      <c r="F8">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>LN(E8 /$D$3)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>$D$3 * EXP($H$15 * B8)</f>
+        <v>6.4417533737337988E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>390</v>
+      </c>
+      <c r="C9">
+        <v>408</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.15594855305466238</v>
+      </c>
+      <c r="E9">
+        <f>$D$3* (1 -  D9)</f>
+        <v>5.4371712559650228E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="1">B9</f>
+        <v>390</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G12" si="2">LN(E9 /$D$3)</f>
+        <v>-0.16954183014755569</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H12" si="3">$D$3 * EXP($H$15 * B9)</f>
+        <v>5.3004979345574535E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>777</v>
+      </c>
+      <c r="C10">
+        <v>488</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.28456591639871387</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E13" si="4">$D$3* (1 -  D10)</f>
+        <v>4.608649921722734E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>777</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>-0.33486581057293913</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>4.3679804646832836E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1195</v>
+      </c>
+      <c r="C11">
+        <v>562</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.40353697749196138</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>3.8422676875486165E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1195</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-0.51673803013174424</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3.5441585384275109E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3155</v>
+      </c>
+      <c r="C12">
+        <v>799</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.78456591639871376</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>1.387773234855835E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3155</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-1.5351002927882678</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1.3301620355607991E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>933</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1868BD-B935-E844-A4F3-BAEEBB4A0D29}">
+  <dimension ref="C20:N36"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>(-E23 + 4 * E22 - 3 * E21) / (2 * 10)</f>
+        <v>-1.8499999999999982E-2</v>
+      </c>
+      <c r="H21">
+        <f>LN(D21)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I21">
+        <f>LN(E21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>LN(-F21)</f>
+        <v>-3.9899845468978588</v>
+      </c>
+      <c r="L21">
+        <f>LN($J$30) + $J$31*LN(D21)+$J$32*LN(E21)</f>
+        <v>-3.989984542627516</v>
+      </c>
+      <c r="M21">
+        <f>-EXP(L21)</f>
+        <v>-1.8500000079001325E-2</v>
+      </c>
+      <c r="N21">
+        <f>ABS((F21 - M21) / F21) * 100</f>
+        <v>4.2703429006132252E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1.83</v>
+      </c>
+      <c r="E22">
+        <f>$E$21 + (-1) / (-1) * (D22 - $D$21)</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F22">
+        <f>(E23 - E21) / (2 * 10)</f>
+        <v>-1.5500000000000003E-2</v>
+      </c>
+      <c r="H22">
+        <f>LN(D22)</f>
+        <v>0.60431596685332956</v>
+      </c>
+      <c r="I22">
+        <f>LN(E22)</f>
+        <v>-0.18632957819149337</v>
+      </c>
+      <c r="J22">
+        <f>LN(-F22)</f>
+        <v>-4.1669152550569359</v>
+      </c>
+      <c r="L22">
+        <f>LN($J$30) + $J$31*LN(D22)+$J$32*LN(E22)</f>
+        <v>-4.2255470005712317</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M26" si="0">-EXP(L22)</f>
+        <v>-1.4617336830775176E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N26" si="1">ABS((F22 - M22) / F22) * 100</f>
+        <v>5.6946010917730785</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>1.69</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E26" si="2">$E$21 + (-1) / (-1) * (D23 - $D$21)</f>
+        <v>0.69</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F25" si="3">(E24 - E22) / (2 * 10)</f>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H23">
+        <f>LN(D23)</f>
+        <v>0.52472852893498212</v>
+      </c>
+      <c r="I23">
+        <f>LN(E23)</f>
+        <v>-0.37106368139083207</v>
+      </c>
+      <c r="J23">
+        <f>LN(-F23)</f>
+        <v>-4.4228486291941369</v>
+      </c>
+      <c r="L23">
+        <f>LN($J$30) + $J$31*LN(D23)+$J$32*LN(E23)</f>
+        <v>-4.4521719734881007</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>-1.1653228959261889E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>2.8897586728175977</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>1.59</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>-8.9999999999999976E-3</v>
+      </c>
+      <c r="H24">
+        <f>LN(D24)</f>
+        <v>0.46373401623214022</v>
+      </c>
+      <c r="I24">
+        <f>LN(E24)</f>
+        <v>-0.52763274208237176</v>
+      </c>
+      <c r="J24">
+        <f>LN(-F24)</f>
+        <v>-4.7105307016459177</v>
+      </c>
+      <c r="L24">
+        <f>LN($J$30) + $J$31*LN(D24)+$J$32*LN(E24)</f>
+        <v>-4.6389760887450082</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>-9.6675913171015929E-3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>7.4176813011288392</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1.51</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="H25">
+        <f>LN(D25)</f>
+        <v>0.41210965082683298</v>
+      </c>
+      <c r="I25">
+        <f>LN(E25)</f>
+        <v>-0.67334455326376563</v>
+      </c>
+      <c r="J25">
+        <f>LN(-F25)</f>
+        <v>-4.8283137373023006</v>
+      </c>
+      <c r="L25">
+        <f>LN($J$30) + $J$31*LN(D25)+$J$32*LN(E25)</f>
+        <v>-4.8086327576194305</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>-8.1590074158493682E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>1.987592698117012</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>1.43</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="F26">
+        <f xml:space="preserve"> (3 * E26 - 4 * E25 + E24) / (2 * 10)</f>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="H26">
+        <f>LN(D26)</f>
+        <v>0.35767444427181588</v>
+      </c>
+      <c r="I26">
+        <f>LN(E26)</f>
+        <v>-0.84397007029452908</v>
+      </c>
+      <c r="J26">
+        <f>LN(-F26)</f>
+        <v>-4.8283137373023006</v>
+      </c>
+      <c r="L26">
+        <f>LN($J$30) + $J$31*LN(D26)+$J$32*LN(E26)</f>
+        <v>-5.0023895447111277</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>-6.7218655947392601E-3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>15.976680065759325</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE(N21:N26)</f>
+        <v>5.6610523761050233</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <v>1.0509816678362758E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31">
+        <v>0.81578777216210219</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32">
+        <v>0.87530407999917803</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f>1.2413 / J30</f>
+        <v>118.10862529653299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF87B71A-70CF-6C46-BF9B-CD85E6F882B3}">
+  <dimension ref="K2:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>